--- a/sample_data_open_access_published.xlsx
+++ b/sample_data_open_access_published.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgerard\Desktop\Thèse\Communications\__paper condition grade 25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32710F36-E2F1-45C1-A6C7-499E550F3F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103E9813-304D-4F85-B4F9-94A1CF72541C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{113A678F-8C96-49CD-9FDD-37A688B13739}"/>
   </bookViews>
@@ -50,18 +50,6 @@
     <t>figure</t>
   </si>
   <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>PD</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SI_Tmax_pelvis_mean</t>
   </si>
   <si>
@@ -129,6 +117,18 @@
   </si>
   <si>
     <t>SOFT</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>LH</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,67 +522,67 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
@@ -590,13 +590,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -744,13 +744,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -821,13 +821,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1052,13 +1052,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1129,13 +1129,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1206,13 +1206,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1283,13 +1283,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1360,13 +1360,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1437,13 +1437,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1514,13 +1514,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1591,13 +1591,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1668,13 +1668,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1745,13 +1745,13 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
         <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1899,13 +1899,13 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1976,13 +1976,13 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>0</v>
